--- a/APLT.xlsx
+++ b/APLT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EDA5DB-FDD7-4E48-AD39-F9F07D2144A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E02BAC-1033-0C4C-9263-9B27A3E3AF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25410" yWindow="1950" windowWidth="25350" windowHeight="18015" xr2:uid="{90CB9FB5-7B29-490F-9747-40C1B38E8A6D}"/>
+    <workbookView xWindow="8040" yWindow="760" windowWidth="26520" windowHeight="20500" xr2:uid="{90CB9FB5-7B29-490F-9747-40C1B38E8A6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -478,19 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0F248C-A6B8-4F49-AFD4-B2A62C5CB298}">
-  <dimension ref="B2:M12"/>
+  <dimension ref="B2:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" customWidth="1"/>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -510,7 +510,7 @@
         <v>8.39</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -533,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -548,7 +548,7 @@
         <v>963.56021369000007</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K5" t="s">
         <v>3</v>
       </c>
@@ -559,7 +559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>20</v>
       </c>
@@ -573,7 +573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>21</v>
       </c>
@@ -585,7 +585,7 @@
         <v>841.36321369000007</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K9" t="s">
         <v>7</v>
       </c>
@@ -596,7 +596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K10" t="s">
         <v>8</v>
       </c>
@@ -607,12 +607,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="K12" t="s">
         <v>9</v>
       </c>
       <c r="L12">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.15">
+      <c r="L15">
+        <f>L5/L3</f>
+        <v>1.0640049427464651</v>
       </c>
     </row>
   </sheetData>
